--- a/漢字テスト.xlsx
+++ b/漢字テスト.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113">
   <si>
     <t>漢字テスト　第1-5</t>
   </si>
@@ -822,243 +822,931 @@
     <t>ならいます</t>
   </si>
   <si>
+    <t>học</t>
+  </si>
+  <si>
     <t>貸します</t>
   </si>
   <si>
     <t>thải</t>
   </si>
   <si>
+    <t>かします</t>
+  </si>
+  <si>
+    <t>cho mượn</t>
+  </si>
+  <si>
     <t>借ります</t>
   </si>
   <si>
+    <t>tá</t>
+  </si>
+  <si>
+    <t>かります</t>
+  </si>
+  <si>
+    <t>mượn</t>
+  </si>
+  <si>
     <t>送ります</t>
   </si>
   <si>
+    <t>tống</t>
+  </si>
+  <si>
+    <t>おくります</t>
+  </si>
+  <si>
+    <t>gửi</t>
+  </si>
+  <si>
     <t>迎えます</t>
   </si>
   <si>
+    <t>nghênh</t>
+  </si>
+  <si>
+    <t>むかえます</t>
+  </si>
+  <si>
+    <t>chào mừng</t>
+  </si>
+  <si>
     <t>消します</t>
   </si>
   <si>
+    <t>tiêu</t>
+  </si>
+  <si>
+    <t>けします</t>
+  </si>
+  <si>
+    <t>tẩy, xóa</t>
+  </si>
+  <si>
     <t>花</t>
   </si>
   <si>
+    <t>hoa</t>
+  </si>
+  <si>
+    <t>はな</t>
+  </si>
+  <si>
     <t>荷物</t>
   </si>
   <si>
+    <t xml:space="preserve">hành </t>
+  </si>
+  <si>
+    <t>にもつ</t>
+  </si>
+  <si>
+    <t>hành lí</t>
+  </si>
+  <si>
     <t>切符</t>
   </si>
   <si>
+    <t>thiết phù</t>
+  </si>
+  <si>
+    <t>きっぷ</t>
+  </si>
+  <si>
+    <t>vé</t>
+  </si>
+  <si>
+    <t>thụ phó</t>
+  </si>
+  <si>
+    <t>うけつけ</t>
+  </si>
+  <si>
+    <t>lễ tân</t>
+  </si>
+  <si>
     <t>母</t>
   </si>
   <si>
+    <t>mẫu</t>
+  </si>
+  <si>
+    <t>はは</t>
+  </si>
+  <si>
+    <t>mẹ</t>
+  </si>
+  <si>
     <t>父</t>
   </si>
   <si>
+    <t>phụ</t>
+  </si>
+  <si>
+    <t>ちち</t>
+  </si>
+  <si>
+    <t>cha</t>
+  </si>
+  <si>
     <t>兄</t>
   </si>
   <si>
+    <t>huynh</t>
+  </si>
+  <si>
+    <t>あに</t>
+  </si>
+  <si>
+    <t>anh trai</t>
+  </si>
+  <si>
     <t>姉</t>
   </si>
   <si>
+    <t>tỉ</t>
+  </si>
+  <si>
+    <t>あね</t>
+  </si>
+  <si>
+    <t>anh gái</t>
+  </si>
+  <si>
     <t>弟</t>
   </si>
   <si>
+    <t>đệ</t>
+  </si>
+  <si>
+    <t>おとうと</t>
+  </si>
+  <si>
+    <t>em trai</t>
+  </si>
+  <si>
     <t>妹</t>
   </si>
   <si>
+    <t>muội</t>
+  </si>
+  <si>
+    <t>いもうと</t>
+  </si>
+  <si>
+    <t>em gái</t>
+  </si>
+  <si>
     <t>奥さん</t>
   </si>
   <si>
+    <t>áo</t>
+  </si>
+  <si>
+    <t>おくさん</t>
+  </si>
+  <si>
+    <t>vợ mình</t>
+  </si>
+  <si>
     <t>主人</t>
   </si>
   <si>
+    <t>chủ nhân</t>
+  </si>
+  <si>
+    <t>しゅじん</t>
+  </si>
+  <si>
+    <t>chồng mình</t>
+  </si>
+  <si>
     <t>旦那</t>
   </si>
   <si>
+    <t>đán na</t>
+  </si>
+  <si>
+    <t>だんな</t>
+  </si>
+  <si>
+    <t>chồng người khác</t>
+  </si>
+  <si>
     <t>子供</t>
   </si>
   <si>
+    <t>tử cung</t>
+  </si>
+  <si>
+    <t>こども</t>
+  </si>
+  <si>
+    <t>con cái, trẻ em</t>
+  </si>
+  <si>
     <t>新年</t>
   </si>
   <si>
+    <t>tân niên</t>
+  </si>
+  <si>
+    <t>しんねん</t>
+  </si>
+  <si>
+    <t>năm mới</t>
+  </si>
+  <si>
     <t>失礼</t>
   </si>
   <si>
+    <t>thất lễ</t>
+  </si>
+  <si>
+    <t>しつれい</t>
+  </si>
+  <si>
+    <t>excuse me</t>
+  </si>
+  <si>
     <t>旅行</t>
   </si>
   <si>
+    <t>du lịch</t>
+  </si>
+  <si>
+    <t>りょこう</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
     <t>お土産</t>
   </si>
   <si>
+    <t>thổ sản</t>
+  </si>
+  <si>
+    <t>おみやげ</t>
+  </si>
+  <si>
+    <t>quà lưu niệm</t>
+  </si>
+  <si>
     <t>孫</t>
   </si>
   <si>
+    <t>tôn</t>
+  </si>
+  <si>
+    <t>まご</t>
+  </si>
+  <si>
+    <t>cháu</t>
+  </si>
+  <si>
     <t>お祖父さん</t>
   </si>
   <si>
+    <t>tổ phụ</t>
+  </si>
+  <si>
+    <t>おじいさん</t>
+  </si>
+  <si>
+    <t>ông nội  - 祖父(そふ): ông</t>
+  </si>
+  <si>
     <t>お祖母さん</t>
   </si>
   <si>
+    <t>tổ mẫu</t>
+  </si>
+  <si>
+    <t>おばあさん</t>
+  </si>
+  <si>
+    <t>bà ngoại - 祖母(そば): bà</t>
+  </si>
+  <si>
     <t>親族</t>
   </si>
   <si>
+    <t>thân tộc</t>
+  </si>
+  <si>
+    <t>しんぞく</t>
+  </si>
+  <si>
+    <t>relatives (near)</t>
+  </si>
+  <si>
     <t>親戚</t>
   </si>
   <si>
+    <t>thân thích</t>
+  </si>
+  <si>
+    <t xml:space="preserve">しんせき
+</t>
+  </si>
+  <si>
+    <t>relative or relation (distant)</t>
+  </si>
+  <si>
     <t>親切</t>
   </si>
   <si>
+    <t>thân thiết</t>
+  </si>
+  <si>
+    <t>しんせつ</t>
+  </si>
+  <si>
+    <t>tốt bụng</t>
+  </si>
+  <si>
     <t>有名</t>
   </si>
   <si>
+    <t>hữu danh</t>
+  </si>
+  <si>
+    <t>ゆうめい</t>
+  </si>
+  <si>
+    <t>nổi tiếng</t>
+  </si>
+  <si>
     <t>元気</t>
   </si>
   <si>
+    <t>nguyên khí</t>
+  </si>
+  <si>
+    <t>げんき</t>
+  </si>
+  <si>
+    <t>khỏe mạnh</t>
+  </si>
+  <si>
     <t>静か</t>
   </si>
   <si>
+    <t>tĩnh</t>
+  </si>
+  <si>
+    <t>しずか</t>
+  </si>
+  <si>
+    <t>yên tĩnh</t>
+  </si>
+  <si>
     <t>暇</t>
   </si>
   <si>
+    <t>hạ</t>
+  </si>
+  <si>
+    <t>ひま</t>
+  </si>
+  <si>
+    <t>rãnh</t>
+  </si>
+  <si>
     <t>忙しい</t>
   </si>
   <si>
+    <t>mang</t>
+  </si>
+  <si>
+    <t>いそがしい</t>
+  </si>
+  <si>
+    <t>bận</t>
+  </si>
+  <si>
     <t>便利</t>
   </si>
   <si>
+    <t>tiện lợi</t>
+  </si>
+  <si>
+    <t>べんり</t>
+  </si>
+  <si>
     <t>不便</t>
   </si>
   <si>
+    <t>bất tiện</t>
+  </si>
+  <si>
+    <t>ふべん</t>
+  </si>
+  <si>
     <t>大きい</t>
   </si>
   <si>
+    <t>đại</t>
+  </si>
+  <si>
+    <t>おおきい</t>
+  </si>
+  <si>
+    <t>lớn</t>
+  </si>
+  <si>
     <t>小さい</t>
   </si>
   <si>
+    <t>tiểu</t>
+  </si>
+  <si>
+    <t>ちいさい</t>
+  </si>
+  <si>
+    <t>nhỏ</t>
+  </si>
+  <si>
     <t>新しい</t>
   </si>
   <si>
+    <t>tân</t>
+  </si>
+  <si>
+    <t>あたらしい</t>
+  </si>
+  <si>
+    <t>mới</t>
+  </si>
+  <si>
     <t>古い</t>
   </si>
   <si>
+    <t>cổ</t>
+  </si>
+  <si>
+    <t>ふるい</t>
+  </si>
+  <si>
+    <t>cũ</t>
+  </si>
+  <si>
     <t>悪い</t>
   </si>
   <si>
+    <t>ác</t>
+  </si>
+  <si>
+    <t>わるい</t>
+  </si>
+  <si>
+    <t>xấu</t>
+  </si>
+  <si>
     <t>良い</t>
   </si>
   <si>
+    <t>lương</t>
+  </si>
+  <si>
+    <t>よい</t>
+  </si>
+  <si>
+    <t>tốt</t>
+  </si>
+  <si>
     <t>暑い</t>
   </si>
   <si>
+    <t>thử</t>
+  </si>
+  <si>
+    <t>あつい</t>
+  </si>
+  <si>
+    <t>nóng</t>
+  </si>
+  <si>
     <t>寒い</t>
   </si>
   <si>
+    <t>hàn</t>
+  </si>
+  <si>
+    <t>さむい</t>
+  </si>
+  <si>
+    <t>lạnh (thời tiết)</t>
+  </si>
+  <si>
     <t>熱い</t>
   </si>
   <si>
+    <t>nhiệt</t>
+  </si>
+  <si>
+    <t>nóng - 熱(ねつ)</t>
+  </si>
+  <si>
     <t>冷たい</t>
   </si>
   <si>
+    <t>つめたい</t>
+  </si>
+  <si>
+    <t>lạnh (nhiệt  độ)</t>
+  </si>
+  <si>
     <t>厚い</t>
   </si>
   <si>
+    <t>hậu</t>
+  </si>
+  <si>
+    <t>dày</t>
+  </si>
+  <si>
     <t>薄い</t>
   </si>
   <si>
+    <t>bạc</t>
+  </si>
+  <si>
+    <t>うすい</t>
+  </si>
+  <si>
+    <t>mỏng</t>
+  </si>
+  <si>
     <t>難しい</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>むずかしい</t>
+  </si>
+  <si>
+    <t>khó</t>
+  </si>
+  <si>
     <t>易しい</t>
   </si>
   <si>
+    <t>dịch</t>
+  </si>
+  <si>
+    <t>やさしい</t>
+  </si>
+  <si>
+    <t>dễ dàng</t>
+  </si>
+  <si>
     <t>厳しい</t>
   </si>
   <si>
+    <t>nghiêm</t>
+  </si>
+  <si>
+    <t>きびしい</t>
+  </si>
+  <si>
+    <t>nghiêm khắc</t>
+  </si>
+  <si>
     <t>優しい</t>
   </si>
   <si>
+    <t>ưu</t>
+  </si>
+  <si>
+    <t>hiền lành</t>
+  </si>
+  <si>
     <t>高い</t>
   </si>
   <si>
+    <t>cao</t>
+  </si>
+  <si>
+    <t>たかい</t>
+  </si>
+  <si>
     <t>安い</t>
   </si>
   <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>やすい</t>
+  </si>
+  <si>
+    <t>rẻ</t>
+  </si>
+  <si>
     <t>楽しい</t>
   </si>
   <si>
+    <t>lạc</t>
+  </si>
+  <si>
+    <t>たのしい</t>
+  </si>
+  <si>
+    <t>vui</t>
+  </si>
+  <si>
     <t>白い</t>
   </si>
   <si>
+    <t>bạch</t>
+  </si>
+  <si>
+    <t>しろい</t>
+  </si>
+  <si>
+    <t>trắng</t>
+  </si>
+  <si>
     <t>黒い</t>
   </si>
   <si>
+    <t>hắc</t>
+  </si>
+  <si>
+    <t>くろい</t>
+  </si>
+  <si>
+    <t>đen</t>
+  </si>
+  <si>
     <t>赤い</t>
   </si>
   <si>
+    <t>xích</t>
+  </si>
+  <si>
+    <t>あかい</t>
+  </si>
+  <si>
+    <t>đỏ</t>
+  </si>
+  <si>
     <t>青い</t>
   </si>
   <si>
+    <t>thanh</t>
+  </si>
+  <si>
+    <t>あおい</t>
+  </si>
+  <si>
+    <t>xanh</t>
+  </si>
+  <si>
     <t>試験</t>
   </si>
   <si>
+    <t>thí nghiệm</t>
+  </si>
+  <si>
+    <t>しけん</t>
+  </si>
+  <si>
+    <t>bài kiểm tra</t>
+  </si>
+  <si>
     <t>実験</t>
   </si>
   <si>
+    <t>thực nghiệm</t>
+  </si>
+  <si>
+    <t>じっけん</t>
+  </si>
+  <si>
     <t>食べ物</t>
   </si>
   <si>
+    <t>thực vật</t>
+  </si>
+  <si>
+    <t>たべもの</t>
+  </si>
+  <si>
+    <t>thức ăn</t>
+  </si>
+  <si>
     <t>桜</t>
   </si>
   <si>
+    <t>anh</t>
+  </si>
+  <si>
+    <t>さくら</t>
+  </si>
+  <si>
+    <t>hoa anh đào</t>
+  </si>
+  <si>
     <t>町</t>
   </si>
   <si>
+    <t>đinh</t>
+  </si>
+  <si>
+    <t>まち</t>
+  </si>
+  <si>
+    <t>thị trấn</t>
+  </si>
+  <si>
     <t>山</t>
   </si>
   <si>
+    <t>sơn</t>
+  </si>
+  <si>
+    <t>やま</t>
+  </si>
+  <si>
+    <t>núi</t>
+  </si>
+  <si>
     <t>富士山</t>
   </si>
   <si>
+    <t>phú sĩ sơn</t>
+  </si>
+  <si>
+    <t>ふじさん</t>
+  </si>
+  <si>
+    <t>núi phú sĩ</t>
+  </si>
+  <si>
     <t>寮</t>
   </si>
   <si>
+    <t>liêu</t>
+  </si>
+  <si>
+    <t>りょう</t>
+  </si>
+  <si>
+    <t>kí túc xá</t>
+  </si>
+  <si>
     <t>生活</t>
   </si>
   <si>
+    <t>sinh hoạt</t>
+  </si>
+  <si>
+    <t>せいかつ</t>
+  </si>
+  <si>
+    <t>cuộc sống</t>
+  </si>
+  <si>
     <t>大変</t>
   </si>
   <si>
+    <t>đại biến</t>
+  </si>
+  <si>
+    <t>たいへん</t>
+  </si>
+  <si>
+    <t>vất vả</t>
+  </si>
+  <si>
     <t>変体</t>
   </si>
   <si>
+    <t>biến thể</t>
+  </si>
+  <si>
+    <t>へんたい</t>
+  </si>
+  <si>
+    <t>biến thái, biến thể</t>
+  </si>
+  <si>
     <t>分かります</t>
   </si>
   <si>
+    <t>phân</t>
+  </si>
+  <si>
+    <t>わかります</t>
+  </si>
+  <si>
+    <t>hiểu</t>
+  </si>
+  <si>
     <t>頂きます</t>
   </si>
   <si>
+    <t>đính</t>
+  </si>
+  <si>
+    <t>いただきます</t>
+  </si>
+  <si>
+    <t>xin nhận</t>
+  </si>
+  <si>
     <t>結構</t>
   </si>
   <si>
+    <t>kết cấu</t>
+  </si>
+  <si>
+    <t>けっこう</t>
+  </si>
+  <si>
+    <t>No thank you</t>
+  </si>
+  <si>
     <t>好き</t>
   </si>
   <si>
+    <t>hảo</t>
+  </si>
+  <si>
+    <t>すき</t>
+  </si>
+  <si>
+    <t>thích</t>
+  </si>
+  <si>
     <t>嫌い</t>
   </si>
   <si>
+    <t>hiềm</t>
+  </si>
+  <si>
+    <t>きらい</t>
+  </si>
+  <si>
+    <t>ghét</t>
+  </si>
+  <si>
     <t>上手</t>
   </si>
   <si>
+    <t>thượng thủ</t>
+  </si>
+  <si>
+    <t>じょうず</t>
+  </si>
+  <si>
+    <t>giỏi</t>
+  </si>
+  <si>
     <t>上手い</t>
   </si>
   <si>
+    <t>うまい</t>
+  </si>
+  <si>
+    <t>khéo léo, thông minh</t>
+  </si>
+  <si>
     <t>下手</t>
   </si>
   <si>
+    <t>hạ thủ</t>
+  </si>
+  <si>
+    <t>へた</t>
+  </si>
+  <si>
+    <t>kém</t>
+  </si>
+  <si>
+    <t>hán tự</t>
+  </si>
+  <si>
+    <t>かんじ</t>
+  </si>
+  <si>
     <t>料理</t>
   </si>
   <si>
+    <t>liêu lí</t>
+  </si>
+  <si>
+    <t>りょうり</t>
+  </si>
+  <si>
+    <t>nấu ăn</t>
+  </si>
+  <si>
     <t>豚</t>
   </si>
   <si>
@@ -1068,6 +1756,9 @@
     <t>ふた</t>
   </si>
   <si>
+    <t>heo</t>
+  </si>
+  <si>
     <t>鳥</t>
   </si>
   <si>
@@ -1077,10 +1768,16 @@
     <t>とり</t>
   </si>
   <si>
+    <t>con chim</t>
+  </si>
+  <si>
     <t>牛</t>
   </si>
   <si>
     <t>うし</t>
+  </si>
+  <si>
+    <t>con bò</t>
   </si>
   <si>
     <t>音楽</t>
@@ -1126,6 +1823,9 @@
     <t>かぶき</t>
   </si>
   <si>
+    <t>nhạc kabuki của nhật</t>
+  </si>
+  <si>
     <t>野球</t>
   </si>
   <si>
@@ -1135,6 +1835,9 @@
     <t>やきゅう</t>
   </si>
   <si>
+    <t>bóng chày</t>
+  </si>
+  <si>
     <t>卓球</t>
   </si>
   <si>
@@ -1180,12 +1883,18 @@
     <t>はやい</t>
   </si>
   <si>
+    <t>nhanh</t>
+  </si>
+  <si>
     <t>早い</t>
   </si>
   <si>
     <t>tảo</t>
   </si>
   <si>
+    <t>sớm</t>
+  </si>
+  <si>
     <t>晩い</t>
   </si>
   <si>
@@ -1267,9 +1976,6 @@
     <t>熱</t>
   </si>
   <si>
-    <t>nhiệt</t>
-  </si>
-  <si>
     <t>ねつ</t>
   </si>
   <si>
@@ -1297,6 +2003,9 @@
     <t>ざんねん</t>
   </si>
   <si>
+    <t>tiếc</t>
+  </si>
+  <si>
     <t>肝臓</t>
   </si>
   <si>
@@ -1390,6 +2099,9 @@
     <t>まえ, うしろ, ぜんご</t>
   </si>
   <si>
+    <t>trước sau</t>
+  </si>
+  <si>
     <t>左右</t>
   </si>
   <si>
@@ -1399,6 +2111,9 @@
     <t>ひだり, みぎ, さゆう</t>
   </si>
   <si>
+    <t>trái phải</t>
+  </si>
+  <si>
     <t>隣</t>
   </si>
   <si>
@@ -1408,6 +2123,9 @@
     <t>となり</t>
   </si>
   <si>
+    <t>kế bên</t>
+  </si>
+  <si>
     <t>間</t>
   </si>
   <si>
@@ -1417,6 +2135,9 @@
     <t>あいだ</t>
   </si>
   <si>
+    <t>giữa</t>
+  </si>
+  <si>
     <t>地図</t>
   </si>
   <si>
@@ -1426,6 +2147,9 @@
     <t>ちず</t>
   </si>
   <si>
+    <t>bản đồ</t>
+  </si>
+  <si>
     <t>地理</t>
   </si>
   <si>
@@ -1444,6 +2168,9 @@
     <t>でんち</t>
   </si>
   <si>
+    <t>pin</t>
+  </si>
+  <si>
     <t>電波</t>
   </si>
   <si>
@@ -1477,6 +2204,9 @@
     <t>れいぞうこ</t>
   </si>
   <si>
+    <t>tủ lạnh</t>
+  </si>
+  <si>
     <t>本棚</t>
   </si>
   <si>
@@ -1486,6 +2216,9 @@
     <t>ほんだな</t>
   </si>
   <si>
+    <t>kệ sách</t>
+  </si>
+  <si>
     <t>公園</t>
   </si>
   <si>
@@ -1504,6 +2237,9 @@
     <t>こうむいん</t>
   </si>
   <si>
+    <t>công chức</t>
+  </si>
+  <si>
     <t>大使館</t>
   </si>
   <si>
@@ -1513,6 +2249,9 @@
     <t>たいしかん</t>
   </si>
   <si>
+    <t>đại sứ quán</t>
+  </si>
+  <si>
     <t>旅館</t>
   </si>
   <si>
@@ -1522,6 +2261,9 @@
     <t>りょかん</t>
   </si>
   <si>
+    <t>nhà nghỉ, ks</t>
+  </si>
+  <si>
     <t>バス乗り場</t>
   </si>
   <si>
@@ -1531,6 +2273,9 @@
     <t>バスのりば</t>
   </si>
   <si>
+    <t>trạm xe bus</t>
+  </si>
+  <si>
     <t>埼玉県</t>
   </si>
   <si>
@@ -1540,6 +2285,9 @@
     <t>さいたまけん</t>
   </si>
   <si>
+    <t>tỉnh Saimata</t>
+  </si>
+  <si>
     <t>東京都</t>
   </si>
   <si>
@@ -1585,6 +2333,9 @@
     <t>かぶきちょう</t>
   </si>
   <si>
+    <t>khu phố kabuki</t>
+  </si>
+  <si>
     <t>三丁目</t>
   </si>
   <si>
@@ -1594,6 +2345,9 @@
     <t>さんちょうめ</t>
   </si>
   <si>
+    <t>3 choume (khu phố)</t>
+  </si>
+  <si>
     <t>大阪府</t>
   </si>
   <si>
@@ -1603,13 +2357,19 @@
     <t>おおさかふ</t>
   </si>
   <si>
+    <t>Osaka-fu (phủ)</t>
+  </si>
+  <si>
     <t>奥・隅</t>
   </si>
   <si>
     <t>áo - ngung</t>
   </si>
   <si>
-    <t>すみ</t>
+    <t>おく - すみ</t>
+  </si>
+  <si>
+    <t>trong góc</t>
   </si>
   <si>
     <t>斜め</t>
@@ -1619,6 +2379,9 @@
   </si>
   <si>
     <t>ななめ</t>
+  </si>
+  <si>
+    <t>nghiêng, chênh chechs</t>
   </si>
   <si>
     <t>漢字テスト　第11-15</t>
@@ -2677,6 +3440,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2684,22 +3454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2721,16 +3476,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2744,9 +3491,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2761,14 +3515,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2782,8 +3537,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2804,19 +3567,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2829,13 +3592,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,13 +3706,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2871,31 +3754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2907,109 +3772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3144,15 +3907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3168,21 +3922,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3190,21 +3929,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3236,15 +3960,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3262,130 +4025,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3763,7 +4526,7 @@
   <sheetPr/>
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" topLeftCell="A82" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4809,8 +5572,8 @@
   <sheetPr/>
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" outlineLevelCol="3"/>
@@ -5371,1357 +6134,1895 @@
       <c r="C40" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="41" ht="44.25" customHeight="1" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="42" ht="44.25" customHeight="1" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="43" ht="44.25" customHeight="1" spans="1:4">
       <c r="A43" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="44" ht="44.25" customHeight="1" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+        <v>279</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="45" ht="44.25" customHeight="1" spans="1:4">
       <c r="A45" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="46" ht="44.25" customHeight="1" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+        <v>287</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="47" ht="44.25" customHeight="1" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+        <v>290</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="48" ht="44.25" customHeight="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+        <v>294</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="49" ht="44.25" customHeight="1" spans="1:4">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="B49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="50" ht="44.25" customHeight="1" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+        <v>301</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="51" ht="44.25" customHeight="1" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+        <v>305</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="52" ht="44.25" customHeight="1" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+        <v>309</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="53" ht="44.25" customHeight="1" spans="1:4">
       <c r="A53" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+        <v>313</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="54" ht="44.25" customHeight="1" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+        <v>317</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="55" ht="44.25" customHeight="1" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+        <v>321</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="56" ht="44.25" customHeight="1" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+        <v>325</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="57" ht="44.25" customHeight="1" spans="1:4">
       <c r="A57" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+        <v>329</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="58" ht="44.25" customHeight="1" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+        <v>333</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="59" ht="44.25" customHeight="1" spans="1:4">
       <c r="A59" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+        <v>337</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="60" ht="44.25" customHeight="1" spans="1:4">
       <c r="A60" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+        <v>341</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="61" ht="44.25" customHeight="1" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
+        <v>345</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="62" ht="44.25" customHeight="1" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
+        <v>349</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="63" ht="44.25" customHeight="1" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+        <v>353</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="64" ht="44.25" customHeight="1" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+        <v>357</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="65" ht="44.25" customHeight="1" spans="1:4">
       <c r="A65" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+        <v>361</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="66" ht="44.25" customHeight="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+        <v>365</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="67" ht="44.25" customHeight="1" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
+        <v>369</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="68" ht="44.25" customHeight="1" spans="1:4">
       <c r="A68" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
+        <v>373</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="69" ht="44.25" customHeight="1" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+        <v>377</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="70" ht="44.25" customHeight="1" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
+        <v>381</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="71" ht="44.25" customHeight="1" spans="1:4">
       <c r="A71" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
+        <v>385</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="72" ht="44.25" customHeight="1" spans="1:4">
       <c r="A72" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
+        <v>389</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="73" ht="44.25" customHeight="1" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
+        <v>393</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="74" ht="44.25" customHeight="1" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
+        <v>397</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="75" ht="44.25" customHeight="1" spans="1:4">
       <c r="A75" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+        <v>401</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="76" ht="44.25" customHeight="1" spans="1:4">
       <c r="A76" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+        <v>404</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="77" ht="44.25" customHeight="1" spans="1:4">
       <c r="A77" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
+        <v>407</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="78" ht="44.25" customHeight="1" spans="1:4">
       <c r="A78" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
+        <v>411</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="79" ht="44.25" customHeight="1" spans="1:4">
       <c r="A79" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
+        <v>415</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="80" ht="44.25" customHeight="1" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
+        <v>419</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="81" ht="44.25" customHeight="1" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
+        <v>423</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="82" ht="44.25" customHeight="1" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
+        <v>427</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="83" ht="44.25" customHeight="1" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
+        <v>431</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="84" ht="44.25" customHeight="1" spans="1:4">
       <c r="A84" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
+        <v>435</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="85" ht="44.25" customHeight="1" spans="1:4">
       <c r="A85" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+        <v>439</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="86" ht="44.25" customHeight="1" spans="1:4">
       <c r="A86" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+        <v>442</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="87" ht="44.25" customHeight="1" spans="1:4">
       <c r="A87" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+        <v>445</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="88" ht="44.25" customHeight="1" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+        <v>448</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="89" ht="44.25" customHeight="1" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
+        <v>452</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="90" ht="44.25" customHeight="1" spans="1:4">
       <c r="A90" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+        <v>456</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="91" ht="44.25" customHeight="1" spans="1:4">
       <c r="A91" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
+        <v>460</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="92" ht="44.25" customHeight="1" spans="1:4">
       <c r="A92" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
+        <v>464</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="93" ht="44.25" customHeight="1" spans="1:4">
       <c r="A93" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
+        <v>467</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="94" ht="44.25" customHeight="1" spans="1:4">
       <c r="A94" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
+        <v>470</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="95" ht="44.25" customHeight="1" spans="1:4">
       <c r="A95" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
+        <v>474</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="96" ht="44.25" customHeight="1" spans="1:4">
       <c r="A96" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+        <v>478</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="97" ht="44.25" customHeight="1" spans="1:4">
       <c r="A97" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+        <v>482</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="98" ht="44.25" customHeight="1" spans="1:4">
       <c r="A98" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+        <v>486</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="99" ht="44.25" customHeight="1" spans="1:4">
       <c r="A99" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+        <v>490</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="100" ht="44.25" customHeight="1" spans="1:4">
       <c r="A100" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+        <v>494</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="101" ht="44.25" customHeight="1" spans="1:4">
       <c r="A101" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+        <v>498</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="102" ht="44.25" customHeight="1" spans="1:4">
       <c r="A102" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+        <v>501</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="103" ht="44.25" customHeight="1" spans="1:4">
       <c r="A103" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+        <v>505</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="104" ht="44.25" customHeight="1" spans="1:4">
       <c r="A104" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+        <v>509</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="105" ht="44.25" customHeight="1" spans="1:4">
       <c r="A105" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+        <v>513</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="106" ht="44.25" customHeight="1" spans="1:4">
       <c r="A106" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+        <v>517</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="107" ht="44.25" customHeight="1" spans="1:4">
       <c r="A107" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+        <v>521</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="108" ht="44.25" customHeight="1" spans="1:4">
       <c r="A108" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+        <v>525</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="109" ht="44.25" customHeight="1" spans="1:4">
       <c r="A109" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+        <v>529</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="110" ht="44.25" customHeight="1" spans="1:4">
       <c r="A110" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+        <v>533</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="111" ht="44.25" customHeight="1" spans="1:4">
       <c r="A111" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+        <v>537</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="112" ht="44.25" customHeight="1" spans="1:4">
       <c r="A112" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+        <v>541</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="113" ht="44.25" customHeight="1" spans="1:4">
       <c r="A113" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+        <v>545</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="114" ht="44.25" customHeight="1" spans="1:4">
       <c r="A114" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+        <v>549</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="115" ht="44.25" customHeight="1" spans="1:4">
       <c r="A115" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+        <v>553</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="116" ht="44.25" customHeight="1" spans="1:4">
       <c r="A116" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+        <v>557</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="117" ht="44.25" customHeight="1" spans="1:4">
       <c r="A117" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+        <v>561</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="118" ht="44.25" customHeight="1" spans="1:4">
       <c r="A118" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
+        <v>564</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="119" ht="44.25" customHeight="1" spans="1:4">
       <c r="A119" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+      <c r="B119" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="120" ht="44.25" customHeight="1" spans="1:4">
       <c r="A120" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
+        <v>570</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="121" ht="44.25" customHeight="1" spans="1:4">
       <c r="A121" s="7" t="s">
-        <v>345</v>
+        <v>574</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>346</v>
+        <v>575</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D121" s="8"/>
+        <v>576</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="122" ht="44.25" customHeight="1" spans="1:4">
       <c r="A122" s="7" t="s">
-        <v>348</v>
+        <v>578</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>349</v>
+        <v>579</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="8"/>
+        <v>580</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="123" ht="44.25" customHeight="1" spans="1:4">
       <c r="A123" s="7" t="s">
-        <v>351</v>
+        <v>582</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D123" s="8"/>
+        <v>583</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="124" ht="44.25" customHeight="1" spans="1:4">
       <c r="A124" s="7" t="s">
-        <v>353</v>
+        <v>585</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>354</v>
+        <v>586</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D124" s="8"/>
+        <v>587</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="125" ht="44.25" customHeight="1" spans="1:4">
       <c r="A125" s="7" t="s">
-        <v>356</v>
+        <v>588</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>357</v>
+        <v>589</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>358</v>
+        <v>590</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>359</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" ht="44.25" customHeight="1" spans="1:4">
       <c r="A126" s="7" t="s">
-        <v>360</v>
+        <v>592</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>361</v>
+        <v>593</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>362</v>
+        <v>594</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>363</v>
+        <v>595</v>
       </c>
     </row>
     <row r="127" ht="44.25" customHeight="1" spans="1:4">
       <c r="A127" s="7" t="s">
-        <v>364</v>
+        <v>596</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>365</v>
+        <v>597</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D127" s="8"/>
+        <v>598</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="128" ht="44.25" customHeight="1" spans="1:4">
       <c r="A128" s="7" t="s">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>368</v>
+        <v>601</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D128" s="8"/>
+        <v>602</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="129" ht="44.25" customHeight="1" spans="1:4">
       <c r="A129" s="7" t="s">
-        <v>370</v>
+        <v>604</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>371</v>
+        <v>605</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>372</v>
+        <v>606</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>373</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130" ht="44.25" customHeight="1" spans="1:4">
       <c r="A130" s="7" t="s">
-        <v>374</v>
+        <v>608</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>375</v>
+        <v>609</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>376</v>
+        <v>610</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>377</v>
+        <v>611</v>
       </c>
     </row>
     <row r="131" ht="44.25" customHeight="1" spans="1:4">
       <c r="A131" s="7" t="s">
-        <v>378</v>
+        <v>612</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>379</v>
+        <v>613</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>381</v>
+        <v>615</v>
       </c>
     </row>
     <row r="132" ht="44.25" customHeight="1" spans="1:4">
       <c r="A132" s="7" t="s">
-        <v>382</v>
+        <v>616</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>383</v>
+        <v>617</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D132" s="8"/>
+        <v>618</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="133" ht="44.25" customHeight="1" spans="1:4">
       <c r="A133" s="7" t="s">
-        <v>385</v>
+        <v>620</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>386</v>
+        <v>621</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="D133" s="8"/>
+        <v>618</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="134" ht="44.25" customHeight="1" spans="1:4">
       <c r="A134" s="7" t="s">
-        <v>387</v>
+        <v>623</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>388</v>
+        <v>624</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>390</v>
+        <v>626</v>
       </c>
     </row>
     <row r="135" ht="44.25" customHeight="1" spans="1:4">
       <c r="A135" s="7" t="s">
-        <v>391</v>
+        <v>627</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>392</v>
+        <v>628</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>393</v>
+        <v>629</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>394</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" ht="44.25" customHeight="1" spans="1:4">
       <c r="A136" s="7" t="s">
-        <v>395</v>
+        <v>631</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>396</v>
+        <v>632</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>397</v>
+        <v>633</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>398</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" ht="44.25" customHeight="1" spans="1:4">
       <c r="A137" s="7" t="s">
-        <v>399</v>
+        <v>635</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>400</v>
+        <v>636</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>401</v>
+        <v>637</v>
       </c>
       <c r="D137" s="8"/>
     </row>
     <row r="138" ht="44.25" customHeight="1" spans="1:4">
       <c r="A138" s="7" t="s">
-        <v>402</v>
+        <v>638</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>403</v>
+        <v>639</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>404</v>
+        <v>640</v>
       </c>
       <c r="D138" s="8"/>
     </row>
     <row r="139" ht="44.25" customHeight="1" spans="1:4">
       <c r="A139" s="7" t="s">
-        <v>405</v>
+        <v>641</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>406</v>
+        <v>642</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>407</v>
+        <v>643</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>408</v>
+        <v>644</v>
       </c>
     </row>
     <row r="140" ht="44.25" customHeight="1" spans="1:4">
       <c r="A140" s="7" t="s">
-        <v>409</v>
+        <v>645</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>410</v>
+        <v>646</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>411</v>
+        <v>647</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>412</v>
+        <v>648</v>
       </c>
     </row>
     <row r="141" ht="44.25" customHeight="1" spans="1:4">
       <c r="A141" s="7" t="s">
-        <v>413</v>
+        <v>649</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>415</v>
+        <v>650</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>416</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" ht="44.25" customHeight="1" spans="1:4">
       <c r="A142" s="7" t="s">
-        <v>417</v>
+        <v>652</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>418</v>
+        <v>653</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>419</v>
+        <v>654</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>420</v>
+        <v>655</v>
       </c>
     </row>
     <row r="143" ht="44.25" customHeight="1" spans="1:4">
       <c r="A143" s="7" t="s">
-        <v>421</v>
+        <v>656</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>422</v>
+        <v>657</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D143" s="8"/>
+        <v>658</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="144" ht="44.25" customHeight="1" spans="1:4">
       <c r="A144" s="7" t="s">
-        <v>424</v>
+        <v>660</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>425</v>
+        <v>661</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>426</v>
+        <v>662</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>427</v>
+        <v>663</v>
       </c>
     </row>
     <row r="145" ht="44.25" customHeight="1" spans="1:4">
       <c r="A145" s="7" t="s">
-        <v>428</v>
+        <v>664</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>429</v>
+        <v>665</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>430</v>
+        <v>666</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>431</v>
+        <v>667</v>
       </c>
     </row>
     <row r="146" ht="44.25" customHeight="1" spans="1:4">
       <c r="A146" s="7" t="s">
-        <v>432</v>
+        <v>668</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>433</v>
+        <v>669</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>434</v>
+        <v>670</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>435</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" ht="44.25" customHeight="1" spans="1:4">
       <c r="A147" s="7" t="s">
-        <v>436</v>
+        <v>672</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>437</v>
+        <v>673</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>438</v>
+        <v>674</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>439</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148" ht="44.25" customHeight="1" spans="1:4">
       <c r="A148" s="7" t="s">
-        <v>440</v>
+        <v>676</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>441</v>
+        <v>677</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>442</v>
+        <v>678</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>443</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" ht="44.25" customHeight="1" spans="1:4">
       <c r="A149" s="7" t="s">
-        <v>444</v>
+        <v>680</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>445</v>
+        <v>681</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>446</v>
+        <v>682</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>447</v>
+        <v>683</v>
       </c>
     </row>
     <row r="150" ht="44.25" customHeight="1" spans="1:4">
       <c r="A150" s="7" t="s">
-        <v>448</v>
+        <v>684</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>449</v>
+        <v>685</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>450</v>
+        <v>686</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>451</v>
+        <v>687</v>
       </c>
     </row>
     <row r="151" ht="44.25" customHeight="1" spans="1:4">
       <c r="A151" s="7" t="s">
-        <v>452</v>
+        <v>688</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>453</v>
+        <v>689</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D151" s="8"/>
+        <v>690</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="152" ht="44.25" customHeight="1" spans="1:4">
       <c r="A152" s="7" t="s">
-        <v>455</v>
+        <v>692</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>456</v>
+        <v>693</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D152" s="8"/>
+        <v>694</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="153" ht="44.25" customHeight="1" spans="1:4">
       <c r="A153" s="7" t="s">
-        <v>458</v>
+        <v>696</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>459</v>
+        <v>697</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D153" s="8"/>
+        <v>698</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="154" ht="44.25" customHeight="1" spans="1:4">
       <c r="A154" s="7" t="s">
-        <v>461</v>
+        <v>700</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>462</v>
+        <v>701</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D154" s="8"/>
+        <v>702</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="155" ht="44.25" customHeight="1" spans="1:4">
       <c r="A155" s="7" t="s">
-        <v>464</v>
+        <v>704</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>465</v>
+        <v>705</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D155" s="8"/>
+        <v>706</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="156" ht="44.25" customHeight="1" spans="1:4">
       <c r="A156" s="7" t="s">
-        <v>467</v>
+        <v>708</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>468</v>
+        <v>709</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="D156" s="8"/>
+        <v>710</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="157" ht="44.25" customHeight="1" spans="1:4">
       <c r="A157" s="7" t="s">
-        <v>470</v>
+        <v>711</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>471</v>
+        <v>712</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D157" s="8"/>
+        <v>713</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="158" ht="44.25" customHeight="1" spans="1:4">
       <c r="A158" s="7" t="s">
-        <v>473</v>
+        <v>715</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>474</v>
+        <v>716</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>475</v>
+        <v>717</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>476</v>
+        <v>718</v>
       </c>
     </row>
     <row r="159" ht="44.25" customHeight="1" spans="1:4">
       <c r="A159" s="7" t="s">
-        <v>477</v>
+        <v>719</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>478</v>
+        <v>720</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>479</v>
+        <v>721</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>480</v>
+        <v>722</v>
       </c>
     </row>
     <row r="160" ht="44.25" customHeight="1" spans="1:4">
       <c r="A160" s="7" t="s">
-        <v>481</v>
+        <v>723</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>482</v>
+        <v>724</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D160" s="8"/>
+        <v>725</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="161" ht="44.25" customHeight="1" spans="1:4">
       <c r="A161" s="7" t="s">
-        <v>484</v>
+        <v>727</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>485</v>
+        <v>728</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D161" s="8"/>
+        <v>729</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="162" ht="44.25" customHeight="1" spans="1:4">
       <c r="A162" s="7" t="s">
-        <v>487</v>
+        <v>731</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>488</v>
+        <v>732</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D162" s="8"/>
+        <v>733</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="163" ht="44.25" customHeight="1" spans="1:4">
       <c r="A163" s="7" t="s">
-        <v>490</v>
+        <v>734</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>491</v>
+        <v>735</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="D163" s="8"/>
+        <v>736</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="164" ht="44.25" customHeight="1" spans="1:4">
       <c r="A164" s="7" t="s">
-        <v>493</v>
+        <v>738</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>494</v>
+        <v>739</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="D164" s="8"/>
+        <v>740</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="165" ht="44.25" customHeight="1" spans="1:4">
       <c r="A165" s="7" t="s">
-        <v>496</v>
+        <v>742</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>497</v>
+        <v>743</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="D165" s="8"/>
+        <v>744</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="166" ht="44.25" customHeight="1" spans="1:4">
       <c r="A166" s="7" t="s">
-        <v>499</v>
+        <v>746</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>500</v>
+        <v>747</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D166" s="8"/>
+        <v>748</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="167" ht="44.25" customHeight="1" spans="1:4">
       <c r="A167" s="7" t="s">
-        <v>502</v>
+        <v>750</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>503</v>
+        <v>751</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D167" s="8"/>
+        <v>752</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="168" ht="44.25" customHeight="1" spans="1:4">
       <c r="A168" s="7" t="s">
-        <v>505</v>
+        <v>754</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>506</v>
+        <v>755</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>507</v>
+        <v>756</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>508</v>
+        <v>757</v>
       </c>
     </row>
     <row r="169" ht="44.25" customHeight="1" spans="1:4">
       <c r="A169" s="7" t="s">
-        <v>509</v>
+        <v>758</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>510</v>
+        <v>759</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>511</v>
+        <v>760</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>512</v>
+        <v>761</v>
       </c>
     </row>
     <row r="170" ht="44.25" customHeight="1" spans="1:4">
       <c r="A170" s="7" t="s">
-        <v>513</v>
+        <v>762</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>514</v>
+        <v>763</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>515</v>
+        <v>764</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>516</v>
+        <v>765</v>
       </c>
     </row>
     <row r="171" ht="44.25" customHeight="1" spans="1:4">
       <c r="A171" s="7" t="s">
-        <v>517</v>
+        <v>766</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>518</v>
+        <v>767</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D171" s="8"/>
+        <v>768</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="172" ht="44.25" customHeight="1" spans="1:4">
       <c r="A172" s="7" t="s">
-        <v>520</v>
+        <v>770</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>521</v>
+        <v>771</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="D172" s="8"/>
+        <v>772</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="173" ht="44.25" customHeight="1" spans="1:4">
       <c r="A173" s="7" t="s">
-        <v>523</v>
+        <v>774</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>524</v>
+        <v>775</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="D173" s="8"/>
+        <v>776</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="174" ht="44.25" customHeight="1" spans="1:4">
       <c r="A174" s="7" t="s">
-        <v>526</v>
+        <v>778</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>527</v>
+        <v>779</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="D174" s="8"/>
+        <v>780</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="175" ht="44.25" customHeight="1" spans="1:4">
       <c r="A175" s="7" t="s">
-        <v>529</v>
+        <v>782</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>530</v>
+        <v>783</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D175" s="8"/>
+        <v>784</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>785</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6750,7 +8051,7 @@
   <sheetData>
     <row r="1" ht="62.25" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>532</v>
+        <v>786</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6772,7 +8073,7 @@
     </row>
     <row r="3" ht="44.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>533</v>
+        <v>787</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6780,7 +8081,7 @@
     </row>
     <row r="4" ht="44.25" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>534</v>
+        <v>788</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6788,7 +8089,7 @@
     </row>
     <row r="5" ht="44.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>535</v>
+        <v>789</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6796,7 +8097,7 @@
     </row>
     <row r="6" ht="44.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>536</v>
+        <v>790</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6804,7 +8105,7 @@
     </row>
     <row r="7" ht="44.25" customHeight="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>537</v>
+        <v>791</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6812,7 +8113,7 @@
     </row>
     <row r="8" ht="44.25" customHeight="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>538</v>
+        <v>792</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6820,7 +8121,7 @@
     </row>
     <row r="9" ht="44.25" customHeight="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>539</v>
+        <v>793</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6828,7 +8129,7 @@
     </row>
     <row r="10" ht="44.25" customHeight="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>540</v>
+        <v>794</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6836,7 +8137,7 @@
     </row>
     <row r="11" ht="44.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>541</v>
+        <v>795</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6844,7 +8145,7 @@
     </row>
     <row r="12" ht="44.25" customHeight="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>542</v>
+        <v>796</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6852,7 +8153,7 @@
     </row>
     <row r="13" ht="44.25" customHeight="1" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>543</v>
+        <v>797</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -6860,7 +8161,7 @@
     </row>
     <row r="14" ht="44.25" customHeight="1" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>544</v>
+        <v>798</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -6868,7 +8169,7 @@
     </row>
     <row r="15" ht="44.25" customHeight="1" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>545</v>
+        <v>799</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6876,7 +8177,7 @@
     </row>
     <row r="16" ht="44.25" customHeight="1" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>546</v>
+        <v>800</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -6884,7 +8185,7 @@
     </row>
     <row r="17" ht="44.25" customHeight="1" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>547</v>
+        <v>801</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6892,7 +8193,7 @@
     </row>
     <row r="18" ht="44.25" customHeight="1" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>548</v>
+        <v>802</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6900,7 +8201,7 @@
     </row>
     <row r="19" ht="44.25" customHeight="1" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>549</v>
+        <v>803</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6908,7 +8209,7 @@
     </row>
     <row r="20" ht="44.25" customHeight="1" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>550</v>
+        <v>804</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6916,7 +8217,7 @@
     </row>
     <row r="21" ht="44.25" customHeight="1" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>551</v>
+        <v>805</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6924,7 +8225,7 @@
     </row>
     <row r="22" ht="44.25" customHeight="1" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>552</v>
+        <v>806</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6932,7 +8233,7 @@
     </row>
     <row r="23" ht="44.25" customHeight="1" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>553</v>
+        <v>807</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6940,7 +8241,7 @@
     </row>
     <row r="24" ht="44.25" customHeight="1" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>320</v>
+        <v>474</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6948,7 +8249,7 @@
     </row>
     <row r="25" ht="44.25" customHeight="1" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>554</v>
+        <v>808</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6956,7 +8257,7 @@
     </row>
     <row r="26" ht="44.25" customHeight="1" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>555</v>
+        <v>809</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6964,7 +8265,7 @@
     </row>
     <row r="27" ht="44.25" customHeight="1" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6972,7 +8273,7 @@
     </row>
     <row r="28" ht="44.25" customHeight="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>556</v>
+        <v>810</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6980,7 +8281,7 @@
     </row>
     <row r="29" ht="44.25" customHeight="1" spans="1:4">
       <c r="A29" s="7" t="s">
-        <v>557</v>
+        <v>811</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6988,7 +8289,7 @@
     </row>
     <row r="30" ht="44.25" customHeight="1" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>558</v>
+        <v>812</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6996,7 +8297,7 @@
     </row>
     <row r="31" ht="44.25" customHeight="1" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>559</v>
+        <v>813</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -7004,7 +8305,7 @@
     </row>
     <row r="32" ht="44.25" customHeight="1" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>560</v>
+        <v>814</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -7012,7 +8313,7 @@
     </row>
     <row r="33" ht="44.25" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>561</v>
+        <v>815</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -7020,7 +8321,7 @@
     </row>
     <row r="34" ht="44.25" customHeight="1" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>562</v>
+        <v>816</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -7028,7 +8329,7 @@
     </row>
     <row r="35" ht="44.25" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>563</v>
+        <v>817</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -7036,7 +8337,7 @@
     </row>
     <row r="36" ht="44.25" customHeight="1" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>564</v>
+        <v>818</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -7044,7 +8345,7 @@
     </row>
     <row r="37" ht="44.25" customHeight="1" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>565</v>
+        <v>819</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -7052,7 +8353,7 @@
     </row>
     <row r="38" ht="44.25" customHeight="1" spans="1:4">
       <c r="A38" s="7" t="s">
-        <v>566</v>
+        <v>820</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -7060,7 +8361,7 @@
     </row>
     <row r="39" ht="44.25" customHeight="1" spans="1:4">
       <c r="A39" s="7" t="s">
-        <v>567</v>
+        <v>821</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -7068,7 +8369,7 @@
     </row>
     <row r="40" ht="44.25" customHeight="1" spans="1:4">
       <c r="A40" s="7" t="s">
-        <v>568</v>
+        <v>822</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -7076,7 +8377,7 @@
     </row>
     <row r="41" ht="44.25" customHeight="1" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>569</v>
+        <v>823</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -7084,7 +8385,7 @@
     </row>
     <row r="42" ht="44.25" customHeight="1" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>570</v>
+        <v>824</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -7092,7 +8393,7 @@
     </row>
     <row r="43" ht="44.25" customHeight="1" spans="1:4">
       <c r="A43" s="7" t="s">
-        <v>571</v>
+        <v>825</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7100,7 +8401,7 @@
     </row>
     <row r="44" ht="44.25" customHeight="1" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>572</v>
+        <v>826</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -7108,7 +8409,7 @@
     </row>
     <row r="45" ht="44.25" customHeight="1" spans="1:4">
       <c r="A45" s="7" t="s">
-        <v>573</v>
+        <v>827</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -7116,7 +8417,7 @@
     </row>
     <row r="46" ht="44.25" customHeight="1" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>574</v>
+        <v>828</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -7124,7 +8425,7 @@
     </row>
     <row r="47" ht="44.25" customHeight="1" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>575</v>
+        <v>829</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -7132,7 +8433,7 @@
     </row>
     <row r="48" ht="44.25" customHeight="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>576</v>
+        <v>830</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -7140,7 +8441,7 @@
     </row>
     <row r="49" ht="44.25" customHeight="1" spans="1:4">
       <c r="A49" s="7" t="s">
-        <v>577</v>
+        <v>831</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -7148,7 +8449,7 @@
     </row>
     <row r="50" ht="44.25" customHeight="1" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -7156,7 +8457,7 @@
     </row>
     <row r="51" ht="44.25" customHeight="1" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>578</v>
+        <v>832</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -7164,7 +8465,7 @@
     </row>
     <row r="52" ht="44.25" customHeight="1" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>579</v>
+        <v>833</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -7172,7 +8473,7 @@
     </row>
     <row r="53" ht="44.25" customHeight="1" spans="1:4">
       <c r="A53" s="7" t="s">
-        <v>580</v>
+        <v>834</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -7180,7 +8481,7 @@
     </row>
     <row r="54" ht="44.25" customHeight="1" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>581</v>
+        <v>835</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -7188,7 +8489,7 @@
     </row>
     <row r="55" ht="44.25" customHeight="1" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>582</v>
+        <v>836</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -7196,7 +8497,7 @@
     </row>
     <row r="56" ht="44.25" customHeight="1" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>583</v>
+        <v>837</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -7204,7 +8505,7 @@
     </row>
     <row r="57" ht="44.25" customHeight="1" spans="1:4">
       <c r="A57" s="7" t="s">
-        <v>584</v>
+        <v>838</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -7212,7 +8513,7 @@
     </row>
     <row r="58" ht="44.25" customHeight="1" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>585</v>
+        <v>839</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -7220,7 +8521,7 @@
     </row>
     <row r="59" ht="44.25" customHeight="1" spans="1:4">
       <c r="A59" s="7" t="s">
-        <v>586</v>
+        <v>840</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7228,7 +8529,7 @@
     </row>
     <row r="60" ht="44.25" customHeight="1" spans="1:4">
       <c r="A60" s="7" t="s">
-        <v>587</v>
+        <v>841</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7236,7 +8537,7 @@
     </row>
     <row r="61" ht="44.25" customHeight="1" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>588</v>
+        <v>842</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7244,7 +8545,7 @@
     </row>
     <row r="62" ht="44.25" customHeight="1" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>589</v>
+        <v>843</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7252,7 +8553,7 @@
     </row>
     <row r="63" ht="44.25" customHeight="1" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>590</v>
+        <v>844</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7260,7 +8561,7 @@
     </row>
     <row r="64" ht="44.25" customHeight="1" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>591</v>
+        <v>845</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7268,7 +8569,7 @@
     </row>
     <row r="65" ht="44.25" customHeight="1" spans="1:4">
       <c r="A65" s="7" t="s">
-        <v>592</v>
+        <v>846</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7276,7 +8577,7 @@
     </row>
     <row r="66" ht="44.25" customHeight="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>593</v>
+        <v>847</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7284,7 +8585,7 @@
     </row>
     <row r="67" ht="44.25" customHeight="1" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>594</v>
+        <v>848</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7292,7 +8593,7 @@
     </row>
     <row r="68" ht="44.25" customHeight="1" spans="1:4">
       <c r="A68" s="7" t="s">
-        <v>595</v>
+        <v>849</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -7300,7 +8601,7 @@
     </row>
     <row r="69" ht="44.25" customHeight="1" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>596</v>
+        <v>850</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -7308,7 +8609,7 @@
     </row>
     <row r="70" ht="44.25" customHeight="1" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>597</v>
+        <v>851</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -7316,7 +8617,7 @@
     </row>
     <row r="71" ht="44.25" customHeight="1" spans="1:4">
       <c r="A71" s="7" t="s">
-        <v>598</v>
+        <v>852</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -7324,7 +8625,7 @@
     </row>
     <row r="72" ht="44.25" customHeight="1" spans="1:4">
       <c r="A72" s="7" t="s">
-        <v>599</v>
+        <v>853</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -7332,7 +8633,7 @@
     </row>
     <row r="73" ht="44.25" customHeight="1" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>600</v>
+        <v>854</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -7340,7 +8641,7 @@
     </row>
     <row r="74" ht="44.25" customHeight="1" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>601</v>
+        <v>855</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -7348,7 +8649,7 @@
     </row>
     <row r="75" ht="44.25" customHeight="1" spans="1:4">
       <c r="A75" s="7" t="s">
-        <v>602</v>
+        <v>856</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -7356,7 +8657,7 @@
     </row>
     <row r="76" ht="44.25" customHeight="1" spans="1:4">
       <c r="A76" s="7" t="s">
-        <v>603</v>
+        <v>857</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -7364,7 +8665,7 @@
     </row>
     <row r="77" ht="44.25" customHeight="1" spans="1:4">
       <c r="A77" s="7" t="s">
-        <v>604</v>
+        <v>858</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7372,7 +8673,7 @@
     </row>
     <row r="78" ht="44.25" customHeight="1" spans="1:4">
       <c r="A78" s="7" t="s">
-        <v>605</v>
+        <v>859</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7388,7 +8689,7 @@
     </row>
     <row r="80" ht="44.25" customHeight="1" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>606</v>
+        <v>860</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -7396,7 +8697,7 @@
     </row>
     <row r="81" ht="44.25" customHeight="1" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>607</v>
+        <v>861</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -7404,7 +8705,7 @@
     </row>
     <row r="82" ht="44.25" customHeight="1" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>608</v>
+        <v>862</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -7412,7 +8713,7 @@
     </row>
     <row r="83" ht="44.25" customHeight="1" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>609</v>
+        <v>863</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -7420,7 +8721,7 @@
     </row>
     <row r="84" ht="44.25" customHeight="1" spans="1:4">
       <c r="A84" s="7" t="s">
-        <v>610</v>
+        <v>864</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -7436,7 +8737,7 @@
     </row>
     <row r="86" ht="44.25" customHeight="1" spans="1:4">
       <c r="A86" s="7" t="s">
-        <v>611</v>
+        <v>865</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7444,7 +8745,7 @@
     </row>
     <row r="87" ht="44.25" customHeight="1" spans="1:4">
       <c r="A87" s="7" t="s">
-        <v>612</v>
+        <v>866</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7452,7 +8753,7 @@
     </row>
     <row r="88" ht="44.25" customHeight="1" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>613</v>
+        <v>867</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7460,7 +8761,7 @@
     </row>
     <row r="89" ht="44.25" customHeight="1" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>614</v>
+        <v>868</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7468,7 +8769,7 @@
     </row>
     <row r="90" ht="44.25" customHeight="1" spans="1:4">
       <c r="A90" s="7" t="s">
-        <v>615</v>
+        <v>869</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7476,7 +8777,7 @@
     </row>
     <row r="91" ht="44.25" customHeight="1" spans="1:4">
       <c r="A91" s="7" t="s">
-        <v>616</v>
+        <v>870</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7484,7 +8785,7 @@
     </row>
     <row r="92" ht="44.25" customHeight="1" spans="1:4">
       <c r="A92" s="7" t="s">
-        <v>617</v>
+        <v>871</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7492,7 +8793,7 @@
     </row>
     <row r="93" ht="44.25" customHeight="1" spans="1:4">
       <c r="A93" s="7" t="s">
-        <v>618</v>
+        <v>872</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7500,7 +8801,7 @@
     </row>
     <row r="94" ht="44.25" customHeight="1" spans="1:4">
       <c r="A94" s="7" t="s">
-        <v>619</v>
+        <v>873</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7508,7 +8809,7 @@
     </row>
     <row r="95" ht="44.25" customHeight="1" spans="1:4">
       <c r="A95" s="7" t="s">
-        <v>620</v>
+        <v>874</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7516,7 +8817,7 @@
     </row>
     <row r="96" ht="44.25" customHeight="1" spans="1:4">
       <c r="A96" s="7" t="s">
-        <v>621</v>
+        <v>875</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7524,7 +8825,7 @@
     </row>
     <row r="97" ht="44.25" customHeight="1" spans="1:4">
       <c r="A97" s="7" t="s">
-        <v>622</v>
+        <v>876</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7532,7 +8833,7 @@
     </row>
     <row r="98" ht="44.25" customHeight="1" spans="1:4">
       <c r="A98" s="7" t="s">
-        <v>623</v>
+        <v>877</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7540,7 +8841,7 @@
     </row>
     <row r="99" ht="44.25" customHeight="1" spans="1:4">
       <c r="A99" s="7" t="s">
-        <v>624</v>
+        <v>878</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7548,7 +8849,7 @@
     </row>
     <row r="100" ht="44.25" customHeight="1" spans="1:4">
       <c r="A100" s="7" t="s">
-        <v>625</v>
+        <v>879</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7556,7 +8857,7 @@
     </row>
     <row r="101" ht="44.25" customHeight="1" spans="1:4">
       <c r="A101" s="7" t="s">
-        <v>626</v>
+        <v>880</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -7564,7 +8865,7 @@
     </row>
     <row r="102" ht="44.25" customHeight="1" spans="1:4">
       <c r="A102" s="7" t="s">
-        <v>627</v>
+        <v>881</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -7572,7 +8873,7 @@
     </row>
     <row r="103" ht="44.25" customHeight="1" spans="1:4">
       <c r="A103" s="7" t="s">
-        <v>628</v>
+        <v>882</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -7580,7 +8881,7 @@
     </row>
     <row r="104" ht="44.25" customHeight="1" spans="1:4">
       <c r="A104" s="7" t="s">
-        <v>629</v>
+        <v>883</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -7588,7 +8889,7 @@
     </row>
     <row r="105" ht="44.25" customHeight="1" spans="1:4">
       <c r="A105" s="7" t="s">
-        <v>630</v>
+        <v>884</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -7596,7 +8897,7 @@
     </row>
     <row r="106" ht="44.25" customHeight="1" spans="1:4">
       <c r="A106" s="7" t="s">
-        <v>631</v>
+        <v>885</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -7604,7 +8905,7 @@
     </row>
     <row r="107" ht="44.25" customHeight="1" spans="1:4">
       <c r="A107" s="7" t="s">
-        <v>632</v>
+        <v>886</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7612,7 +8913,7 @@
     </row>
     <row r="108" ht="44.25" customHeight="1" spans="1:4">
       <c r="A108" s="7" t="s">
-        <v>633</v>
+        <v>887</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -7620,7 +8921,7 @@
     </row>
     <row r="109" ht="44.25" customHeight="1" spans="1:4">
       <c r="A109" s="7" t="s">
-        <v>634</v>
+        <v>888</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -7628,7 +8929,7 @@
     </row>
     <row r="110" ht="44.25" customHeight="1" spans="1:4">
       <c r="A110" s="7" t="s">
-        <v>635</v>
+        <v>889</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7636,7 +8937,7 @@
     </row>
     <row r="111" ht="44.25" customHeight="1" spans="1:4">
       <c r="A111" s="7" t="s">
-        <v>636</v>
+        <v>890</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7644,7 +8945,7 @@
     </row>
     <row r="112" ht="44.25" customHeight="1" spans="1:4">
       <c r="A112" s="7" t="s">
-        <v>637</v>
+        <v>891</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7652,7 +8953,7 @@
     </row>
     <row r="113" ht="44.25" customHeight="1" spans="1:4">
       <c r="A113" s="7" t="s">
-        <v>638</v>
+        <v>892</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -7660,7 +8961,7 @@
     </row>
     <row r="114" ht="44.25" customHeight="1" spans="1:4">
       <c r="A114" s="7" t="s">
-        <v>639</v>
+        <v>893</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -7668,7 +8969,7 @@
     </row>
     <row r="115" ht="44.25" customHeight="1" spans="1:4">
       <c r="A115" s="7" t="s">
-        <v>640</v>
+        <v>894</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -7676,7 +8977,7 @@
     </row>
     <row r="116" ht="44.25" customHeight="1" spans="1:4">
       <c r="A116" s="7" t="s">
-        <v>641</v>
+        <v>895</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -7684,7 +8985,7 @@
     </row>
     <row r="117" ht="44.25" customHeight="1" spans="1:4">
       <c r="A117" s="7" t="s">
-        <v>642</v>
+        <v>896</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -7692,7 +8993,7 @@
     </row>
     <row r="118" ht="44.25" customHeight="1" spans="1:4">
       <c r="A118" s="7" t="s">
-        <v>643</v>
+        <v>897</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -7700,7 +9001,7 @@
     </row>
     <row r="119" ht="44.25" customHeight="1" spans="1:4">
       <c r="A119" s="7" t="s">
-        <v>644</v>
+        <v>898</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -7708,7 +9009,7 @@
     </row>
     <row r="120" ht="44.25" customHeight="1" spans="1:4">
       <c r="A120" s="7" t="s">
-        <v>645</v>
+        <v>899</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -7716,7 +9017,7 @@
     </row>
     <row r="121" ht="44.25" customHeight="1" spans="1:4">
       <c r="A121" s="7" t="s">
-        <v>646</v>
+        <v>900</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -7724,7 +9025,7 @@
     </row>
     <row r="122" ht="44.25" customHeight="1" spans="1:4">
       <c r="A122" s="7" t="s">
-        <v>647</v>
+        <v>901</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -7732,7 +9033,7 @@
     </row>
     <row r="123" ht="44.25" customHeight="1" spans="1:4">
       <c r="A123" s="7" t="s">
-        <v>648</v>
+        <v>902</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -7740,7 +9041,7 @@
     </row>
     <row r="124" ht="44.25" customHeight="1" spans="1:4">
       <c r="A124" s="7" t="s">
-        <v>649</v>
+        <v>903</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -7748,7 +9049,7 @@
     </row>
     <row r="125" ht="44.25" customHeight="1" spans="1:4">
       <c r="A125" s="7" t="s">
-        <v>650</v>
+        <v>904</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -7756,7 +9057,7 @@
     </row>
     <row r="126" ht="44.25" customHeight="1" spans="1:4">
       <c r="A126" s="7" t="s">
-        <v>651</v>
+        <v>905</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -7764,7 +9065,7 @@
     </row>
     <row r="127" ht="44.25" customHeight="1" spans="1:4">
       <c r="A127" s="7" t="s">
-        <v>652</v>
+        <v>906</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -7772,7 +9073,7 @@
     </row>
     <row r="128" ht="44.25" customHeight="1" spans="1:4">
       <c r="A128" s="7" t="s">
-        <v>653</v>
+        <v>907</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -7780,7 +9081,7 @@
     </row>
     <row r="129" ht="44.25" customHeight="1" spans="1:4">
       <c r="A129" s="7" t="s">
-        <v>654</v>
+        <v>908</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -7788,7 +9089,7 @@
     </row>
     <row r="130" ht="44.25" customHeight="1" spans="1:4">
       <c r="A130" s="7" t="s">
-        <v>655</v>
+        <v>909</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -7796,7 +9097,7 @@
     </row>
     <row r="131" ht="44.25" customHeight="1" spans="1:4">
       <c r="A131" s="7" t="s">
-        <v>656</v>
+        <v>910</v>
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -7829,7 +9130,7 @@
   <sheetData>
     <row r="1" ht="62.25" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>532</v>
+        <v>786</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7851,7 +9152,7 @@
     </row>
     <row r="3" ht="44.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>657</v>
+        <v>911</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -7859,7 +9160,7 @@
     </row>
     <row r="4" ht="44.25" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>613</v>
+        <v>867</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -7867,7 +9168,7 @@
     </row>
     <row r="5" ht="44.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>658</v>
+        <v>912</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -7875,7 +9176,7 @@
     </row>
     <row r="6" ht="44.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>659</v>
+        <v>913</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -7883,7 +9184,7 @@
     </row>
     <row r="7" ht="44.25" customHeight="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>660</v>
+        <v>914</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -7891,7 +9192,7 @@
     </row>
     <row r="8" ht="44.25" customHeight="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>661</v>
+        <v>915</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7899,7 +9200,7 @@
     </row>
     <row r="9" ht="44.25" customHeight="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>662</v>
+        <v>916</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7907,7 +9208,7 @@
     </row>
     <row r="10" ht="44.25" customHeight="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>663</v>
+        <v>917</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -7915,7 +9216,7 @@
     </row>
     <row r="11" ht="44.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>664</v>
+        <v>918</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -7923,7 +9224,7 @@
     </row>
     <row r="12" ht="44.25" customHeight="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>665</v>
+        <v>919</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -7931,7 +9232,7 @@
     </row>
     <row r="13" ht="44.25" customHeight="1" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>666</v>
+        <v>920</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -7939,7 +9240,7 @@
     </row>
     <row r="14" ht="44.25" customHeight="1" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>667</v>
+        <v>921</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7947,7 +9248,7 @@
     </row>
     <row r="15" ht="44.25" customHeight="1" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>668</v>
+        <v>922</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -7955,7 +9256,7 @@
     </row>
     <row r="16" ht="44.25" customHeight="1" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>669</v>
+        <v>923</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -7963,7 +9264,7 @@
     </row>
     <row r="17" ht="44.25" customHeight="1" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>670</v>
+        <v>924</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -7971,7 +9272,7 @@
     </row>
     <row r="18" ht="44.25" customHeight="1" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>671</v>
+        <v>925</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -7979,7 +9280,7 @@
     </row>
     <row r="19" ht="44.25" customHeight="1" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>672</v>
+        <v>926</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7987,7 +9288,7 @@
     </row>
     <row r="20" ht="44.25" customHeight="1" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>673</v>
+        <v>927</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -7995,7 +9296,7 @@
     </row>
     <row r="21" ht="44.25" customHeight="1" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>674</v>
+        <v>928</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -8003,7 +9304,7 @@
     </row>
     <row r="22" ht="44.25" customHeight="1" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>675</v>
+        <v>929</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -8011,7 +9312,7 @@
     </row>
     <row r="23" ht="44.25" customHeight="1" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>676</v>
+        <v>930</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -8019,7 +9320,7 @@
     </row>
     <row r="24" ht="44.25" customHeight="1" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>677</v>
+        <v>931</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8027,7 +9328,7 @@
     </row>
     <row r="25" ht="44.25" customHeight="1" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>678</v>
+        <v>932</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8035,7 +9336,7 @@
     </row>
     <row r="26" ht="44.25" customHeight="1" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>679</v>
+        <v>933</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -8043,7 +9344,7 @@
     </row>
     <row r="27" ht="44.25" customHeight="1" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>680</v>
+        <v>934</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -8051,7 +9352,7 @@
     </row>
     <row r="28" ht="44.25" customHeight="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>681</v>
+        <v>935</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -8059,7 +9360,7 @@
     </row>
     <row r="29" ht="44.25" customHeight="1" spans="1:4">
       <c r="A29" s="7" t="s">
-        <v>682</v>
+        <v>936</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -8067,7 +9368,7 @@
     </row>
     <row r="30" ht="44.25" customHeight="1" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>683</v>
+        <v>937</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8075,7 +9376,7 @@
     </row>
     <row r="31" ht="44.25" customHeight="1" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>684</v>
+        <v>938</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -8083,7 +9384,7 @@
     </row>
     <row r="32" ht="44.25" customHeight="1" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>685</v>
+        <v>939</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -8091,7 +9392,7 @@
     </row>
     <row r="33" ht="44.25" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>686</v>
+        <v>940</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -8099,7 +9400,7 @@
     </row>
     <row r="34" ht="44.25" customHeight="1" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>687</v>
+        <v>941</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -8107,7 +9408,7 @@
     </row>
     <row r="35" ht="44.25" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>688</v>
+        <v>942</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -8115,7 +9416,7 @@
     </row>
     <row r="36" ht="44.25" customHeight="1" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>689</v>
+        <v>943</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -8123,7 +9424,7 @@
     </row>
     <row r="37" ht="44.25" customHeight="1" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>690</v>
+        <v>944</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8131,7 +9432,7 @@
     </row>
     <row r="38" ht="44.25" customHeight="1" spans="1:4">
       <c r="A38" s="7" t="s">
-        <v>691</v>
+        <v>945</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8139,7 +9440,7 @@
     </row>
     <row r="39" ht="44.25" customHeight="1" spans="1:4">
       <c r="A39" s="7" t="s">
-        <v>692</v>
+        <v>946</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8147,7 +9448,7 @@
     </row>
     <row r="40" ht="44.25" customHeight="1" spans="1:4">
       <c r="A40" s="7" t="s">
-        <v>693</v>
+        <v>947</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -8155,7 +9456,7 @@
     </row>
     <row r="41" ht="44.25" customHeight="1" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>694</v>
+        <v>948</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8163,7 +9464,7 @@
     </row>
     <row r="42" ht="44.25" customHeight="1" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>695</v>
+        <v>949</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8171,7 +9472,7 @@
     </row>
     <row r="43" ht="44.25" customHeight="1" spans="1:4">
       <c r="A43" s="7" t="s">
-        <v>696</v>
+        <v>950</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8179,7 +9480,7 @@
     </row>
     <row r="44" ht="44.25" customHeight="1" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>697</v>
+        <v>951</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8187,7 +9488,7 @@
     </row>
     <row r="45" ht="44.25" customHeight="1" spans="1:4">
       <c r="A45" s="7" t="s">
-        <v>698</v>
+        <v>952</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -8195,7 +9496,7 @@
     </row>
     <row r="46" ht="44.25" customHeight="1" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>699</v>
+        <v>953</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -8203,7 +9504,7 @@
     </row>
     <row r="47" ht="44.25" customHeight="1" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>700</v>
+        <v>954</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -8211,7 +9512,7 @@
     </row>
     <row r="48" ht="44.25" customHeight="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>701</v>
+        <v>955</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -8219,7 +9520,7 @@
     </row>
     <row r="49" ht="44.25" customHeight="1" spans="1:4">
       <c r="A49" s="7" t="s">
-        <v>702</v>
+        <v>956</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8227,7 +9528,7 @@
     </row>
     <row r="50" ht="44.25" customHeight="1" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>703</v>
+        <v>957</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8235,7 +9536,7 @@
     </row>
     <row r="51" ht="44.25" customHeight="1" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>704</v>
+        <v>958</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -8243,7 +9544,7 @@
     </row>
     <row r="52" ht="44.25" customHeight="1" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>705</v>
+        <v>959</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -8259,7 +9560,7 @@
     </row>
     <row r="54" ht="44.25" customHeight="1" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>706</v>
+        <v>960</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8267,7 +9568,7 @@
     </row>
     <row r="55" ht="44.25" customHeight="1" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>707</v>
+        <v>961</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -8275,7 +9576,7 @@
     </row>
     <row r="56" ht="44.25" customHeight="1" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>708</v>
+        <v>962</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -8283,7 +9584,7 @@
     </row>
     <row r="57" ht="44.25" customHeight="1" spans="1:4">
       <c r="A57" s="7" t="s">
-        <v>709</v>
+        <v>963</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -8291,7 +9592,7 @@
     </row>
     <row r="58" ht="44.25" customHeight="1" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>710</v>
+        <v>964</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -8299,7 +9600,7 @@
     </row>
     <row r="59" ht="44.25" customHeight="1" spans="1:4">
       <c r="A59" s="7" t="s">
-        <v>711</v>
+        <v>965</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -8307,7 +9608,7 @@
     </row>
     <row r="60" ht="44.25" customHeight="1" spans="1:4">
       <c r="A60" s="7" t="s">
-        <v>712</v>
+        <v>966</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -8315,7 +9616,7 @@
     </row>
     <row r="61" ht="44.25" customHeight="1" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>713</v>
+        <v>967</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -8323,7 +9624,7 @@
     </row>
     <row r="62" ht="44.25" customHeight="1" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>714</v>
+        <v>968</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -8331,7 +9632,7 @@
     </row>
     <row r="63" ht="44.25" customHeight="1" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>715</v>
+        <v>969</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -8339,7 +9640,7 @@
     </row>
     <row r="64" ht="44.25" customHeight="1" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>716</v>
+        <v>970</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -8347,7 +9648,7 @@
     </row>
     <row r="65" ht="44.25" customHeight="1" spans="1:4">
       <c r="A65" s="7" t="s">
-        <v>717</v>
+        <v>971</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -8355,7 +9656,7 @@
     </row>
     <row r="66" ht="44.25" customHeight="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>718</v>
+        <v>972</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -8363,7 +9664,7 @@
     </row>
     <row r="67" ht="44.25" customHeight="1" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>719</v>
+        <v>973</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -8371,7 +9672,7 @@
     </row>
     <row r="68" ht="44.25" customHeight="1" spans="1:4">
       <c r="A68" s="7" t="s">
-        <v>720</v>
+        <v>974</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -8379,7 +9680,7 @@
     </row>
     <row r="69" ht="44.25" customHeight="1" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>721</v>
+        <v>975</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -8387,7 +9688,7 @@
     </row>
     <row r="70" ht="44.25" customHeight="1" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>722</v>
+        <v>976</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -8395,7 +9696,7 @@
     </row>
     <row r="71" ht="44.25" customHeight="1" spans="1:4">
       <c r="A71" s="7" t="s">
-        <v>594</v>
+        <v>848</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -8403,7 +9704,7 @@
     </row>
     <row r="72" ht="44.25" customHeight="1" spans="1:4">
       <c r="A72" s="7" t="s">
-        <v>723</v>
+        <v>977</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -8411,7 +9712,7 @@
     </row>
     <row r="73" ht="44.25" customHeight="1" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>724</v>
+        <v>978</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -8419,7 +9720,7 @@
     </row>
     <row r="74" ht="44.25" customHeight="1" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>725</v>
+        <v>979</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -8427,7 +9728,7 @@
     </row>
     <row r="75" ht="44.25" customHeight="1" spans="1:4">
       <c r="A75" s="7" t="s">
-        <v>726</v>
+        <v>980</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -8435,7 +9736,7 @@
     </row>
     <row r="76" ht="44.25" customHeight="1" spans="1:4">
       <c r="A76" s="7" t="s">
-        <v>727</v>
+        <v>981</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -8443,7 +9744,7 @@
     </row>
     <row r="77" ht="44.25" customHeight="1" spans="1:4">
       <c r="A77" s="7" t="s">
-        <v>728</v>
+        <v>982</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -8451,7 +9752,7 @@
     </row>
     <row r="78" ht="44.25" customHeight="1" spans="1:4">
       <c r="A78" s="7" t="s">
-        <v>729</v>
+        <v>983</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -8459,7 +9760,7 @@
     </row>
     <row r="79" ht="44.25" customHeight="1" spans="1:4">
       <c r="A79" s="7" t="s">
-        <v>666</v>
+        <v>920</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -8467,7 +9768,7 @@
     </row>
     <row r="80" ht="44.25" customHeight="1" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>730</v>
+        <v>984</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -8475,7 +9776,7 @@
     </row>
     <row r="81" ht="44.25" customHeight="1" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>731</v>
+        <v>985</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -8483,7 +9784,7 @@
     </row>
     <row r="82" ht="44.25" customHeight="1" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>732</v>
+        <v>986</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8491,7 +9792,7 @@
     </row>
     <row r="83" ht="44.25" customHeight="1" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>733</v>
+        <v>987</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8499,7 +9800,7 @@
     </row>
     <row r="84" ht="44.25" customHeight="1" spans="1:4">
       <c r="A84" s="7" t="s">
-        <v>734</v>
+        <v>988</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8507,7 +9808,7 @@
     </row>
     <row r="85" ht="44.25" customHeight="1" spans="1:4">
       <c r="A85" s="7" t="s">
-        <v>735</v>
+        <v>989</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8515,7 +9816,7 @@
     </row>
     <row r="86" ht="44.25" customHeight="1" spans="1:4">
       <c r="A86" s="7" t="s">
-        <v>736</v>
+        <v>990</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8523,7 +9824,7 @@
     </row>
     <row r="87" ht="44.25" customHeight="1" spans="1:4">
       <c r="A87" s="7" t="s">
-        <v>737</v>
+        <v>991</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8531,7 +9832,7 @@
     </row>
     <row r="88" ht="44.25" customHeight="1" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>582</v>
+        <v>836</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -8539,7 +9840,7 @@
     </row>
     <row r="89" ht="44.25" customHeight="1" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>578</v>
+        <v>832</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -8547,7 +9848,7 @@
     </row>
     <row r="90" ht="44.25" customHeight="1" spans="1:4">
       <c r="A90" s="7" t="s">
-        <v>738</v>
+        <v>992</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -8555,7 +9856,7 @@
     </row>
     <row r="91" ht="44.25" customHeight="1" spans="1:4">
       <c r="A91" s="7" t="s">
-        <v>739</v>
+        <v>993</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -8563,7 +9864,7 @@
     </row>
     <row r="92" ht="44.25" customHeight="1" spans="1:4">
       <c r="A92" s="7" t="s">
-        <v>740</v>
+        <v>994</v>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -8571,7 +9872,7 @@
     </row>
     <row r="93" ht="44.25" customHeight="1" spans="1:4">
       <c r="A93" s="7" t="s">
-        <v>741</v>
+        <v>995</v>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -8579,7 +9880,7 @@
     </row>
     <row r="94" ht="44.25" customHeight="1" spans="1:4">
       <c r="A94" s="7" t="s">
-        <v>742</v>
+        <v>996</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -8587,7 +9888,7 @@
     </row>
     <row r="95" ht="44.25" customHeight="1" spans="1:4">
       <c r="A95" s="7" t="s">
-        <v>743</v>
+        <v>997</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -8595,7 +9896,7 @@
     </row>
     <row r="96" ht="44.25" customHeight="1" spans="1:4">
       <c r="A96" s="7" t="s">
-        <v>744</v>
+        <v>998</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -8603,7 +9904,7 @@
     </row>
     <row r="97" ht="44.25" customHeight="1" spans="1:4">
       <c r="A97" s="7" t="s">
-        <v>745</v>
+        <v>999</v>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -8611,7 +9912,7 @@
     </row>
     <row r="98" ht="44.25" customHeight="1" spans="1:4">
       <c r="A98" s="7" t="s">
-        <v>746</v>
+        <v>1000</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -8619,7 +9920,7 @@
     </row>
     <row r="99" ht="44.25" customHeight="1" spans="1:4">
       <c r="A99" s="7" t="s">
-        <v>747</v>
+        <v>1001</v>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -8627,7 +9928,7 @@
     </row>
     <row r="100" ht="44.25" customHeight="1" spans="1:4">
       <c r="A100" s="7" t="s">
-        <v>748</v>
+        <v>1002</v>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -8635,7 +9936,7 @@
     </row>
     <row r="101" ht="44.25" customHeight="1" spans="1:4">
       <c r="A101" s="7" t="s">
-        <v>749</v>
+        <v>1003</v>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -8643,7 +9944,7 @@
     </row>
     <row r="102" ht="44.25" customHeight="1" spans="1:4">
       <c r="A102" s="7" t="s">
-        <v>750</v>
+        <v>1004</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -8651,7 +9952,7 @@
     </row>
     <row r="103" ht="44.25" customHeight="1" spans="1:4">
       <c r="A103" s="7" t="s">
-        <v>751</v>
+        <v>1005</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -8659,7 +9960,7 @@
     </row>
     <row r="104" ht="44.25" customHeight="1" spans="1:4">
       <c r="A104" s="7" t="s">
-        <v>752</v>
+        <v>1006</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -8667,7 +9968,7 @@
     </row>
     <row r="105" ht="44.25" customHeight="1" spans="1:4">
       <c r="A105" s="7" t="s">
-        <v>753</v>
+        <v>1007</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -8675,7 +9976,7 @@
     </row>
     <row r="106" ht="44.25" customHeight="1" spans="1:4">
       <c r="A106" s="7" t="s">
-        <v>754</v>
+        <v>1008</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -8683,7 +9984,7 @@
     </row>
     <row r="107" ht="44.25" customHeight="1" spans="1:4">
       <c r="A107" s="7" t="s">
-        <v>755</v>
+        <v>1009</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -8691,7 +9992,7 @@
     </row>
     <row r="108" ht="44.25" customHeight="1" spans="1:4">
       <c r="A108" s="7" t="s">
-        <v>756</v>
+        <v>1010</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -8699,7 +10000,7 @@
     </row>
     <row r="109" ht="44.25" customHeight="1" spans="1:4">
       <c r="A109" s="7" t="s">
-        <v>757</v>
+        <v>1011</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -8707,7 +10008,7 @@
     </row>
     <row r="110" ht="44.25" customHeight="1" spans="1:4">
       <c r="A110" s="7" t="s">
-        <v>758</v>
+        <v>1012</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -8715,7 +10016,7 @@
     </row>
     <row r="111" ht="44.25" customHeight="1" spans="1:4">
       <c r="A111" s="7" t="s">
-        <v>759</v>
+        <v>1013</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -8723,7 +10024,7 @@
     </row>
     <row r="112" ht="44.25" customHeight="1" spans="1:4">
       <c r="A112" s="7" t="s">
-        <v>760</v>
+        <v>1014</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -8731,7 +10032,7 @@
     </row>
     <row r="113" ht="44.25" customHeight="1" spans="1:4">
       <c r="A113" s="7" t="s">
-        <v>761</v>
+        <v>1015</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -8739,7 +10040,7 @@
     </row>
     <row r="114" ht="44.25" customHeight="1" spans="1:4">
       <c r="A114" s="7" t="s">
-        <v>762</v>
+        <v>1016</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -8747,7 +10048,7 @@
     </row>
     <row r="115" ht="44.25" customHeight="1" spans="1:4">
       <c r="A115" s="7" t="s">
-        <v>763</v>
+        <v>1017</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -8755,7 +10056,7 @@
     </row>
     <row r="116" ht="44.25" customHeight="1" spans="1:4">
       <c r="A116" s="7" t="s">
-        <v>764</v>
+        <v>1018</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -8763,7 +10064,7 @@
     </row>
     <row r="117" ht="44.25" customHeight="1" spans="1:4">
       <c r="A117" s="7" t="s">
-        <v>765</v>
+        <v>1019</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -8771,7 +10072,7 @@
     </row>
     <row r="118" ht="44.25" customHeight="1" spans="1:4">
       <c r="A118" s="7" t="s">
-        <v>766</v>
+        <v>1020</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -8779,7 +10080,7 @@
     </row>
     <row r="119" ht="44.25" customHeight="1" spans="1:4">
       <c r="A119" s="7" t="s">
-        <v>767</v>
+        <v>1021</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -8787,7 +10088,7 @@
     </row>
     <row r="120" ht="44.25" customHeight="1" spans="1:4">
       <c r="A120" s="7" t="s">
-        <v>768</v>
+        <v>1022</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -8795,7 +10096,7 @@
     </row>
     <row r="121" ht="44.25" customHeight="1" spans="1:4">
       <c r="A121" s="7" t="s">
-        <v>769</v>
+        <v>1023</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -8803,7 +10104,7 @@
     </row>
     <row r="122" ht="44.25" customHeight="1" spans="1:4">
       <c r="A122" s="7" t="s">
-        <v>770</v>
+        <v>1024</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -8811,7 +10112,7 @@
     </row>
     <row r="123" ht="44.25" customHeight="1" spans="1:4">
       <c r="A123" s="7" t="s">
-        <v>771</v>
+        <v>1025</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -8819,7 +10120,7 @@
     </row>
     <row r="124" ht="44.25" customHeight="1" spans="1:4">
       <c r="A124" s="7" t="s">
-        <v>772</v>
+        <v>1026</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -8827,7 +10128,7 @@
     </row>
     <row r="125" ht="44.25" customHeight="1" spans="1:4">
       <c r="A125" s="7" t="s">
-        <v>773</v>
+        <v>1027</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -8835,7 +10136,7 @@
     </row>
     <row r="126" ht="44.25" customHeight="1" spans="1:4">
       <c r="A126" s="7" t="s">
-        <v>774</v>
+        <v>1028</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -8843,7 +10144,7 @@
     </row>
     <row r="127" ht="44.25" customHeight="1" spans="1:4">
       <c r="A127" s="7" t="s">
-        <v>775</v>
+        <v>1029</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -8876,7 +10177,7 @@
   <sheetData>
     <row r="1" ht="62.25" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>532</v>
+        <v>786</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -8898,7 +10199,7 @@
     </row>
     <row r="3" ht="44.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>776</v>
+        <v>1030</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -8906,7 +10207,7 @@
     </row>
     <row r="4" ht="44.25" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>777</v>
+        <v>1031</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -8914,7 +10215,7 @@
     </row>
     <row r="5" ht="44.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>778</v>
+        <v>1032</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -8922,7 +10223,7 @@
     </row>
     <row r="6" ht="44.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>779</v>
+        <v>1033</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -8930,7 +10231,7 @@
     </row>
     <row r="7" ht="44.25" customHeight="1" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>780</v>
+        <v>1034</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -8938,7 +10239,7 @@
     </row>
     <row r="8" ht="44.25" customHeight="1" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>781</v>
+        <v>1035</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8946,7 +10247,7 @@
     </row>
     <row r="9" ht="44.25" customHeight="1" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>782</v>
+        <v>1036</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -8954,7 +10255,7 @@
     </row>
     <row r="10" ht="44.25" customHeight="1" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>783</v>
+        <v>1037</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -8962,7 +10263,7 @@
     </row>
     <row r="11" ht="44.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>784</v>
+        <v>1038</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -8970,7 +10271,7 @@
     </row>
     <row r="12" ht="44.25" customHeight="1" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>785</v>
+        <v>1039</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -8978,7 +10279,7 @@
     </row>
     <row r="13" ht="44.25" customHeight="1" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>786</v>
+        <v>1040</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -8986,7 +10287,7 @@
     </row>
     <row r="14" ht="44.25" customHeight="1" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>787</v>
+        <v>1041</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8994,7 +10295,7 @@
     </row>
     <row r="15" ht="44.25" customHeight="1" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>788</v>
+        <v>1042</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -9002,7 +10303,7 @@
     </row>
     <row r="16" ht="44.25" customHeight="1" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>789</v>
+        <v>1043</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -9010,7 +10311,7 @@
     </row>
     <row r="17" ht="44.25" customHeight="1" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>790</v>
+        <v>1044</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -9018,7 +10319,7 @@
     </row>
     <row r="18" ht="44.25" customHeight="1" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>791</v>
+        <v>1045</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -9026,7 +10327,7 @@
     </row>
     <row r="19" ht="44.25" customHeight="1" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>792</v>
+        <v>1046</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -9034,7 +10335,7 @@
     </row>
     <row r="20" ht="44.25" customHeight="1" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>793</v>
+        <v>1047</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -9042,7 +10343,7 @@
     </row>
     <row r="21" ht="44.25" customHeight="1" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>794</v>
+        <v>1048</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -9050,7 +10351,7 @@
     </row>
     <row r="22" ht="44.25" customHeight="1" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>795</v>
+        <v>1049</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -9058,7 +10359,7 @@
     </row>
     <row r="23" ht="44.25" customHeight="1" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>796</v>
+        <v>1050</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -9066,7 +10367,7 @@
     </row>
     <row r="24" ht="44.25" customHeight="1" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>797</v>
+        <v>1051</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -9074,7 +10375,7 @@
     </row>
     <row r="25" ht="44.25" customHeight="1" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>798</v>
+        <v>1052</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9082,7 +10383,7 @@
     </row>
     <row r="26" ht="44.25" customHeight="1" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>799</v>
+        <v>1053</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -9090,7 +10391,7 @@
     </row>
     <row r="27" ht="44.25" customHeight="1" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>800</v>
+        <v>1054</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -9098,7 +10399,7 @@
     </row>
     <row r="28" ht="44.25" customHeight="1" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>801</v>
+        <v>1055</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -9106,7 +10407,7 @@
     </row>
     <row r="29" ht="44.25" customHeight="1" spans="1:4">
       <c r="A29" s="7" t="s">
-        <v>802</v>
+        <v>1056</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -9114,7 +10415,7 @@
     </row>
     <row r="30" ht="44.25" customHeight="1" spans="1:4">
       <c r="A30" s="7" t="s">
-        <v>803</v>
+        <v>1057</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -9122,7 +10423,7 @@
     </row>
     <row r="31" ht="44.25" customHeight="1" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>804</v>
+        <v>1058</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -9130,7 +10431,7 @@
     </row>
     <row r="32" ht="44.25" customHeight="1" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>805</v>
+        <v>1059</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -9138,7 +10439,7 @@
     </row>
     <row r="33" ht="44.25" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>806</v>
+        <v>1060</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -9146,7 +10447,7 @@
     </row>
     <row r="34" ht="44.25" customHeight="1" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>807</v>
+        <v>1061</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -9154,7 +10455,7 @@
     </row>
     <row r="35" ht="44.25" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>808</v>
+        <v>1062</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -9162,7 +10463,7 @@
     </row>
     <row r="36" ht="44.25" customHeight="1" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>809</v>
+        <v>1063</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -9170,7 +10471,7 @@
     </row>
     <row r="37" ht="44.25" customHeight="1" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>810</v>
+        <v>1064</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -9178,7 +10479,7 @@
     </row>
     <row r="38" ht="44.25" customHeight="1" spans="1:4">
       <c r="A38" s="7" t="s">
-        <v>811</v>
+        <v>1065</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -9186,7 +10487,7 @@
     </row>
     <row r="39" ht="44.25" customHeight="1" spans="1:4">
       <c r="A39" s="7" t="s">
-        <v>812</v>
+        <v>1066</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -9194,7 +10495,7 @@
     </row>
     <row r="40" ht="44.25" customHeight="1" spans="1:4">
       <c r="A40" s="7" t="s">
-        <v>813</v>
+        <v>1067</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -9202,7 +10503,7 @@
     </row>
     <row r="41" ht="44.25" customHeight="1" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>814</v>
+        <v>1068</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -9210,7 +10511,7 @@
     </row>
     <row r="42" ht="44.25" customHeight="1" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>815</v>
+        <v>1069</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -9218,7 +10519,7 @@
     </row>
     <row r="43" ht="44.25" customHeight="1" spans="1:4">
       <c r="A43" s="7" t="s">
-        <v>816</v>
+        <v>1070</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -9226,7 +10527,7 @@
     </row>
     <row r="44" ht="44.25" customHeight="1" spans="1:4">
       <c r="A44" s="7" t="s">
-        <v>817</v>
+        <v>1071</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -9234,7 +10535,7 @@
     </row>
     <row r="45" ht="44.25" customHeight="1" spans="1:4">
       <c r="A45" s="7" t="s">
-        <v>818</v>
+        <v>1072</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -9242,7 +10543,7 @@
     </row>
     <row r="46" ht="44.25" customHeight="1" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>819</v>
+        <v>1073</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -9250,7 +10551,7 @@
     </row>
     <row r="47" ht="44.25" customHeight="1" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>820</v>
+        <v>1074</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -9258,7 +10559,7 @@
     </row>
     <row r="48" ht="44.25" customHeight="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>821</v>
+        <v>1075</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -9266,7 +10567,7 @@
     </row>
     <row r="49" ht="44.25" customHeight="1" spans="1:4">
       <c r="A49" s="7" t="s">
-        <v>822</v>
+        <v>1076</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -9274,7 +10575,7 @@
     </row>
     <row r="50" ht="44.25" customHeight="1" spans="1:4">
       <c r="A50" s="7" t="s">
-        <v>823</v>
+        <v>1077</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -9282,7 +10583,7 @@
     </row>
     <row r="51" ht="44.25" customHeight="1" spans="1:4">
       <c r="A51" s="7" t="s">
-        <v>824</v>
+        <v>1078</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -9290,7 +10591,7 @@
     </row>
     <row r="52" ht="44.25" customHeight="1" spans="1:4">
       <c r="A52" s="7" t="s">
-        <v>825</v>
+        <v>1079</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -9298,7 +10599,7 @@
     </row>
     <row r="53" ht="44.25" customHeight="1" spans="1:4">
       <c r="A53" s="7" t="s">
-        <v>826</v>
+        <v>1080</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -9306,7 +10607,7 @@
     </row>
     <row r="54" ht="44.25" customHeight="1" spans="1:4">
       <c r="A54" s="7" t="s">
-        <v>827</v>
+        <v>1081</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -9314,7 +10615,7 @@
     </row>
     <row r="55" ht="44.25" customHeight="1" spans="1:4">
       <c r="A55" s="7" t="s">
-        <v>828</v>
+        <v>1082</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -9322,7 +10623,7 @@
     </row>
     <row r="56" ht="44.25" customHeight="1" spans="1:4">
       <c r="A56" s="7" t="s">
-        <v>829</v>
+        <v>1083</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -9330,7 +10631,7 @@
     </row>
     <row r="57" ht="44.25" customHeight="1" spans="1:4">
       <c r="A57" s="7" t="s">
-        <v>830</v>
+        <v>1084</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -9338,7 +10639,7 @@
     </row>
     <row r="58" ht="44.25" customHeight="1" spans="1:4">
       <c r="A58" s="7" t="s">
-        <v>831</v>
+        <v>1085</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -9346,7 +10647,7 @@
     </row>
     <row r="59" ht="44.25" customHeight="1" spans="1:4">
       <c r="A59" s="7" t="s">
-        <v>832</v>
+        <v>1086</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -9354,7 +10655,7 @@
     </row>
     <row r="60" ht="44.25" customHeight="1" spans="1:4">
       <c r="A60" s="7" t="s">
-        <v>833</v>
+        <v>1087</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -9362,7 +10663,7 @@
     </row>
     <row r="61" ht="44.25" customHeight="1" spans="1:4">
       <c r="A61" s="7" t="s">
-        <v>834</v>
+        <v>1088</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -9370,7 +10671,7 @@
     </row>
     <row r="62" ht="44.25" customHeight="1" spans="1:4">
       <c r="A62" s="7" t="s">
-        <v>835</v>
+        <v>1089</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -9378,7 +10679,7 @@
     </row>
     <row r="63" ht="44.25" customHeight="1" spans="1:4">
       <c r="A63" s="7" t="s">
-        <v>740</v>
+        <v>994</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -9386,7 +10687,7 @@
     </row>
     <row r="64" ht="44.25" customHeight="1" spans="1:4">
       <c r="A64" s="7" t="s">
-        <v>836</v>
+        <v>1090</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -9394,7 +10695,7 @@
     </row>
     <row r="65" ht="44.25" customHeight="1" spans="1:4">
       <c r="A65" s="7" t="s">
-        <v>837</v>
+        <v>1091</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -9402,7 +10703,7 @@
     </row>
     <row r="66" ht="44.25" customHeight="1" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>838</v>
+        <v>1092</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -9410,7 +10711,7 @@
     </row>
     <row r="67" ht="44.25" customHeight="1" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>839</v>
+        <v>1093</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -9418,7 +10719,7 @@
     </row>
     <row r="68" ht="44.25" customHeight="1" spans="1:4">
       <c r="A68" s="7" t="s">
-        <v>840</v>
+        <v>1094</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -9426,7 +10727,7 @@
     </row>
     <row r="69" ht="44.25" customHeight="1" spans="1:4">
       <c r="A69" s="7" t="s">
-        <v>841</v>
+        <v>1095</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -9434,7 +10735,7 @@
     </row>
     <row r="70" ht="44.25" customHeight="1" spans="1:4">
       <c r="A70" s="7" t="s">
-        <v>842</v>
+        <v>1096</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -9442,7 +10743,7 @@
     </row>
     <row r="71" ht="44.25" customHeight="1" spans="1:4">
       <c r="A71" s="7" t="s">
-        <v>843</v>
+        <v>1097</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -9450,7 +10751,7 @@
     </row>
     <row r="72" ht="44.25" customHeight="1" spans="1:4">
       <c r="A72" s="7" t="s">
-        <v>844</v>
+        <v>1098</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -9458,7 +10759,7 @@
     </row>
     <row r="73" ht="44.25" customHeight="1" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>845</v>
+        <v>1099</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -9466,7 +10767,7 @@
     </row>
     <row r="74" ht="44.25" customHeight="1" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>724</v>
+        <v>978</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -9474,7 +10775,7 @@
     </row>
     <row r="75" ht="44.25" customHeight="1" spans="1:4">
       <c r="A75" s="7" t="s">
-        <v>846</v>
+        <v>1100</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -9482,7 +10783,7 @@
     </row>
     <row r="76" ht="44.25" customHeight="1" spans="1:4">
       <c r="A76" s="7" t="s">
-        <v>847</v>
+        <v>1101</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -9490,7 +10791,7 @@
     </row>
     <row r="77" ht="44.25" customHeight="1" spans="1:4">
       <c r="A77" s="7" t="s">
-        <v>848</v>
+        <v>1102</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -9498,7 +10799,7 @@
     </row>
     <row r="78" ht="44.25" customHeight="1" spans="1:4">
       <c r="A78" s="7" t="s">
-        <v>849</v>
+        <v>1103</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -9506,7 +10807,7 @@
     </row>
     <row r="79" ht="44.25" customHeight="1" spans="1:4">
       <c r="A79" s="7" t="s">
-        <v>850</v>
+        <v>1104</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -9514,7 +10815,7 @@
     </row>
     <row r="80" ht="44.25" customHeight="1" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>851</v>
+        <v>1105</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -9522,7 +10823,7 @@
     </row>
     <row r="81" ht="44.25" customHeight="1" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>852</v>
+        <v>1106</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -9530,7 +10831,7 @@
     </row>
     <row r="82" ht="44.25" customHeight="1" spans="1:4">
       <c r="A82" s="7" t="s">
-        <v>853</v>
+        <v>1107</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -9538,7 +10839,7 @@
     </row>
     <row r="83" ht="44.25" customHeight="1" spans="1:4">
       <c r="A83" s="7" t="s">
-        <v>854</v>
+        <v>1108</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -9546,7 +10847,7 @@
     </row>
     <row r="84" ht="44.25" customHeight="1" spans="1:4">
       <c r="A84" s="7" t="s">
-        <v>855</v>
+        <v>1109</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -9554,7 +10855,7 @@
     </row>
     <row r="85" ht="44.25" customHeight="1" spans="1:4">
       <c r="A85" s="7" t="s">
-        <v>856</v>
+        <v>1110</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -9562,7 +10863,7 @@
     </row>
     <row r="86" ht="44.25" customHeight="1" spans="1:4">
       <c r="A86" s="7" t="s">
-        <v>857</v>
+        <v>1111</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -9570,7 +10871,7 @@
     </row>
     <row r="87" ht="44.25" customHeight="1" spans="1:4">
       <c r="A87" s="7" t="s">
-        <v>858</v>
+        <v>1112</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
